--- a/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1122E97-D254-4726-81AA-846E04748234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF551E40-B8E9-47CA-98D8-3DFD5BA2D9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{735318F2-0BC1-4B29-A415-6D2EB36781BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF8A8357-DCAA-4652-A0CC-643447274474}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="634">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,28 +77,28 @@
     <t>17,36%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,1597 +107,1657 @@
     <t>60,46%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
   </si>
   <si>
     <t>62,86%</t>
   </si>
   <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>25,1%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>73,14%</t>
@@ -1727,49 +1787,55 @@
     <t>72,59%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>65,03%</t>
@@ -1799,55 +1865,55 @@
     <t>65,42%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>78,88%</t>
@@ -1875,57 +1941,6 @@
   </si>
   <si>
     <t>78,21%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A97BFFB-D22F-40CC-93BD-5E122FDD4EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3382B845-0590-4C06-A9F1-D5B9D0453FAF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2978,10 +2993,10 @@
         <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -2990,13 +3005,13 @@
         <v>201482</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>361</v>
@@ -3005,13 +3020,13 @@
         <v>395232</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,7 +3082,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3079,13 +3094,13 @@
         <v>221550</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>245</v>
@@ -3094,13 +3109,13 @@
         <v>243271</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>446</v>
@@ -3109,13 +3124,13 @@
         <v>464822</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3145,13 @@
         <v>356732</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>344</v>
@@ -3145,13 +3160,13 @@
         <v>341696</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>686</v>
@@ -3160,13 +3175,13 @@
         <v>698428</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3196,13 @@
         <v>97870</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>107</v>
@@ -3196,13 +3211,13 @@
         <v>98874</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>203</v>
@@ -3211,13 +3226,13 @@
         <v>196744</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3288,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3285,13 +3300,13 @@
         <v>405655</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>403</v>
@@ -3300,13 +3315,13 @@
         <v>416526</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>827</v>
@@ -3315,13 +3330,13 @@
         <v>822181</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3351,13 @@
         <v>403400</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>435</v>
@@ -3351,13 +3366,13 @@
         <v>453082</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>865</v>
@@ -3366,13 +3381,13 @@
         <v>856481</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3402,13 @@
         <v>128960</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>156</v>
@@ -3402,13 +3417,13 @@
         <v>165995</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>292</v>
@@ -3417,13 +3432,13 @@
         <v>294955</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3506,13 @@
         <v>1072285</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>1021</v>
@@ -3506,13 +3521,13 @@
         <v>1049737</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>2066</v>
@@ -3521,13 +3536,13 @@
         <v>2122023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3557,13 @@
         <v>1600498</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>1637</v>
@@ -3557,13 +3572,13 @@
         <v>1672814</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>3220</v>
@@ -3572,13 +3587,13 @@
         <v>3273311</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3608,13 @@
         <v>593263</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -3608,13 +3623,13 @@
         <v>646895</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>1206</v>
@@ -3623,13 +3638,13 @@
         <v>1240158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,7 +3700,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D550F4-9AF9-4FD6-9ED5-BE6814C8740D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62ED23-126F-4437-B6B4-78FC29683E2E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3723,7 +3738,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3830,13 +3845,13 @@
         <v>32173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3845,13 +3860,13 @@
         <v>20832</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3860,13 +3875,13 @@
         <v>53005</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3896,13 @@
         <v>39626</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -3896,13 +3911,13 @@
         <v>42086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -3911,13 +3926,13 @@
         <v>81712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3947,13 @@
         <v>40731</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>44</v>
@@ -3947,13 +3962,13 @@
         <v>48987</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>88</v>
@@ -3962,13 +3977,13 @@
         <v>89718</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4051,13 @@
         <v>198736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>188</v>
@@ -4051,13 +4066,13 @@
         <v>199009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>372</v>
@@ -4066,13 +4081,13 @@
         <v>397745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,10 +4102,10 @@
         <v>204448</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>216</v>
@@ -4257,13 +4272,13 @@
         <v>396478</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>697</v>
@@ -4272,13 +4287,13 @@
         <v>774450</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4308,13 @@
         <v>436316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>401</v>
@@ -4344,13 +4359,13 @@
         <v>197414</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -4359,13 +4374,13 @@
         <v>191757</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>359</v>
@@ -4374,13 +4389,13 @@
         <v>389171</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,7 +4451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4448,13 +4463,13 @@
         <v>221109</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>209</v>
@@ -4463,13 +4478,13 @@
         <v>222462</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>413</v>
@@ -4478,13 +4493,13 @@
         <v>443571</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4514,13 @@
         <v>351007</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>335</v>
@@ -4514,13 +4529,13 @@
         <v>374621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -4529,13 +4544,13 @@
         <v>725627</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4565,13 @@
         <v>182192</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H18" s="7">
         <v>156</v>
@@ -4580,10 +4595,10 @@
         <v>357126</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>280</v>
@@ -4642,7 +4657,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4690,7 +4705,7 @@
         <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4720,13 @@
         <v>421667</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H21" s="7">
         <v>427</v>
@@ -4720,13 +4735,13 @@
         <v>444430</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>830</v>
@@ -4735,13 +4750,13 @@
         <v>866097</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4771,13 @@
         <v>251922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="H22" s="7">
         <v>267</v>
@@ -4771,13 +4786,13 @@
         <v>275080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
         <v>514</v>
@@ -4786,13 +4801,13 @@
         <v>527003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4875,13 @@
         <v>1100975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H24" s="7">
         <v>1073</v>
@@ -4875,13 +4890,13 @@
         <v>1166206</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>2096</v>
@@ -4890,13 +4905,13 @@
         <v>2267181</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4926,13 @@
         <v>1453063</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>1407</v>
@@ -4926,10 +4941,10 @@
         <v>1516622</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>318</v>
@@ -4962,13 +4977,13 @@
         <v>855676</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="H26" s="7">
         <v>799</v>
@@ -4980,10 +4995,10 @@
         <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M26" s="7">
         <v>1607</v>
@@ -4992,13 +5007,13 @@
         <v>1710665</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,7 +5069,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5075,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34B5F08-AB4F-46D4-AFC5-4B39806F6359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE348BBF-4825-4E88-BA7C-892A5B2338B6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5092,7 +5107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5199,13 +5214,13 @@
         <v>29680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -5214,13 +5229,13 @@
         <v>35635</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -5229,13 +5244,13 @@
         <v>65316</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5265,13 @@
         <v>34512</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -5265,13 +5280,13 @@
         <v>37291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>68</v>
@@ -5280,13 +5295,13 @@
         <v>71802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5316,13 @@
         <v>52354</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>41</v>
@@ -5316,13 +5331,13 @@
         <v>40434</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M6" s="7">
         <v>93</v>
@@ -5331,13 +5346,13 @@
         <v>92788</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5420,13 @@
         <v>208737</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>219</v>
@@ -5420,13 +5435,13 @@
         <v>216895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>427</v>
@@ -5435,13 +5450,13 @@
         <v>425632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5471,13 @@
         <v>171966</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H9" s="7">
         <v>155</v>
@@ -5471,13 +5486,13 @@
         <v>158636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5486,13 +5501,13 @@
         <v>330602</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5522,13 @@
         <v>172469</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -5522,13 +5537,13 @@
         <v>181715</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>336</v>
@@ -5537,13 +5552,13 @@
         <v>354184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5626,13 @@
         <v>433002</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>420</v>
@@ -5626,13 +5641,13 @@
         <v>451770</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>239</v>
+        <v>384</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>821</v>
@@ -5641,13 +5656,13 @@
         <v>884772</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5677,13 @@
         <v>369696</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>375</v>
@@ -5677,13 +5692,13 @@
         <v>396515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>718</v>
@@ -5692,13 +5707,13 @@
         <v>766211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5728,13 @@
         <v>217664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -5728,10 +5743,10 @@
         <v>192708</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>396</v>
@@ -5743,13 +5758,13 @@
         <v>410372</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,7 +5820,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5817,13 +5832,13 @@
         <v>242406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>260</v>
@@ -5832,13 +5847,13 @@
         <v>282096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>477</v>
@@ -5847,13 +5862,13 @@
         <v>524502</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5883,13 @@
         <v>344140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>318</v>
@@ -5883,13 +5898,13 @@
         <v>334730</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>636</v>
@@ -5898,13 +5913,13 @@
         <v>678870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5934,13 @@
         <v>169879</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>154</v>
@@ -5934,13 +5949,13 @@
         <v>163830</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>312</v>
@@ -5949,13 +5964,13 @@
         <v>333709</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,7 +6026,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6023,13 +6038,13 @@
         <v>351218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>387</v>
@@ -6038,13 +6053,13 @@
         <v>422611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>742</v>
@@ -6053,13 +6068,13 @@
         <v>773829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6089,13 @@
         <v>415982</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H21" s="7">
         <v>395</v>
@@ -6089,13 +6104,13 @@
         <v>426581</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M21" s="7">
         <v>806</v>
@@ -6104,13 +6119,13 @@
         <v>842564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6140,13 @@
         <v>168099</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -6140,13 +6155,13 @@
         <v>188167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M22" s="7">
         <v>335</v>
@@ -6155,13 +6170,13 @@
         <v>356266</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6244,13 @@
         <v>1265044</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H24" s="7">
         <v>1324</v>
@@ -6244,13 +6259,13 @@
         <v>1409008</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>458</v>
       </c>
       <c r="M24" s="7">
         <v>2534</v>
@@ -6259,13 +6274,13 @@
         <v>2674052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6295,13 @@
         <v>1336296</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H25" s="7">
         <v>1279</v>
@@ -6295,13 +6310,13 @@
         <v>1353753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>205</v>
+        <v>467</v>
       </c>
       <c r="M25" s="7">
         <v>2548</v>
@@ -6310,13 +6325,13 @@
         <v>2690049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>462</v>
+        <v>210</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6346,13 @@
         <v>780465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H26" s="7">
         <v>721</v>
@@ -6346,13 +6361,13 @@
         <v>766855</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M26" s="7">
         <v>1461</v>
@@ -6361,13 +6376,13 @@
         <v>1547320</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>472</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,7 +6438,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6444,7 +6459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D99BBAC-C897-444F-9E70-23D26131ED84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2C7CF0-F3E2-469E-8934-073963E84D08}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6461,7 +6476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6562,49 +6577,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>96508</v>
+        <v>3376</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>127653</v>
+        <v>574</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M4" s="7">
-        <v>348</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>224161</v>
+        <v>3950</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6634,13 @@
         <v>2098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6634,13 +6649,13 @@
         <v>2506</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -6649,13 +6664,13 @@
         <v>4603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,49 +6679,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="D6" s="7">
-        <v>3376</v>
+        <v>96508</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="I6" s="7">
-        <v>574</v>
+        <v>127653</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>348</v>
       </c>
       <c r="N6" s="7">
-        <v>3950</v>
+        <v>224161</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,49 +6783,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>561</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>503384</v>
+        <v>12379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H8" s="7">
-        <v>920</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>570747</v>
+        <v>13440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M8" s="7">
-        <v>1481</v>
+        <v>32</v>
       </c>
       <c r="N8" s="7">
-        <v>1074132</v>
+        <v>25819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,13 +6840,13 @@
         <v>32587</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
@@ -6840,13 +6855,13 @@
         <v>35058</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -6855,13 +6870,13 @@
         <v>67645</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,49 +6885,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>561</v>
       </c>
       <c r="D10" s="7">
-        <v>12379</v>
+        <v>503384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>920</v>
       </c>
       <c r="I10" s="7">
-        <v>13440</v>
+        <v>570747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M10" s="7">
-        <v>32</v>
+        <v>1481</v>
       </c>
       <c r="N10" s="7">
-        <v>25819</v>
+        <v>1074132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,49 +6989,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>837</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>908318</v>
+        <v>54247</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H12" s="7">
-        <v>1315</v>
+        <v>73</v>
       </c>
       <c r="I12" s="7">
-        <v>913149</v>
+        <v>56134</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M12" s="7">
-        <v>2152</v>
+        <v>124</v>
       </c>
       <c r="N12" s="7">
-        <v>1821468</v>
+        <v>110381</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7046,13 @@
         <v>76682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -7046,13 +7061,13 @@
         <v>88447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -7061,13 +7076,13 @@
         <v>165129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,49 +7091,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>837</v>
       </c>
       <c r="D14" s="7">
-        <v>54247</v>
+        <v>908318</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H14" s="7">
-        <v>73</v>
+        <v>1315</v>
       </c>
       <c r="I14" s="7">
-        <v>56134</v>
+        <v>913149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M14" s="7">
-        <v>124</v>
+        <v>2152</v>
       </c>
       <c r="N14" s="7">
-        <v>110381</v>
+        <v>1821468</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,55 +7189,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>490</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>532902</v>
+        <v>53177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H16" s="7">
-        <v>741</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>538063</v>
+        <v>183014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M16" s="7">
-        <v>1231</v>
+        <v>146</v>
       </c>
       <c r="N16" s="7">
-        <v>1070965</v>
+        <v>236191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7252,13 @@
         <v>142534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -7252,13 +7267,13 @@
         <v>152608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -7267,13 +7282,13 @@
         <v>295142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,49 +7297,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>490</v>
       </c>
       <c r="D18" s="7">
-        <v>53177</v>
+        <v>532902</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H18" s="7">
-        <v>94</v>
+        <v>741</v>
       </c>
       <c r="I18" s="7">
-        <v>183014</v>
+        <v>538063</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>576</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="M18" s="7">
-        <v>146</v>
+        <v>1231</v>
       </c>
       <c r="N18" s="7">
-        <v>236191</v>
+        <v>1070965</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,55 +7395,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>666</v>
+        <v>151</v>
       </c>
       <c r="D20" s="7">
-        <v>627688</v>
+        <v>152052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H20" s="7">
-        <v>958</v>
+        <v>267</v>
       </c>
       <c r="I20" s="7">
-        <v>704247</v>
+        <v>194158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="M20" s="7">
-        <v>1624</v>
+        <v>418</v>
       </c>
       <c r="N20" s="7">
-        <v>1331934</v>
+        <v>346210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7458,13 @@
         <v>185504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="H21" s="7">
         <v>332</v>
@@ -7458,13 +7473,13 @@
         <v>249261</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M21" s="7">
         <v>520</v>
@@ -7473,13 +7488,13 @@
         <v>434765</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,49 +7503,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>151</v>
+        <v>666</v>
       </c>
       <c r="D22" s="7">
-        <v>152052</v>
+        <v>627688</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H22" s="7">
-        <v>267</v>
+        <v>958</v>
       </c>
       <c r="I22" s="7">
-        <v>194158</v>
+        <v>704247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="M22" s="7">
-        <v>418</v>
+        <v>1624</v>
       </c>
       <c r="N22" s="7">
-        <v>346210</v>
+        <v>1331934</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,49 +7607,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>2665</v>
+        <v>268</v>
       </c>
       <c r="D24" s="7">
-        <v>2668801</v>
+        <v>275230</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="H24" s="7">
-        <v>4171</v>
+        <v>457</v>
       </c>
       <c r="I24" s="7">
-        <v>2853859</v>
+        <v>447320</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>608</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
-        <v>6836</v>
+        <v>725</v>
       </c>
       <c r="N24" s="7">
-        <v>5522660</v>
+        <v>722550</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,13 +7664,13 @@
         <v>439405</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>728</v>
@@ -7664,13 +7679,13 @@
         <v>527879</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>1167</v>
@@ -7679,13 +7694,13 @@
         <v>967284</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,49 +7709,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>268</v>
+        <v>2665</v>
       </c>
       <c r="D26" s="7">
-        <v>275230</v>
+        <v>2668801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
-        <v>457</v>
+        <v>4171</v>
       </c>
       <c r="I26" s="7">
-        <v>447320</v>
+        <v>2853859</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>399</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
-        <v>725</v>
+        <v>6836</v>
       </c>
       <c r="N26" s="7">
-        <v>722550</v>
+        <v>5522660</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,7 +7807,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF551E40-B8E9-47CA-98D8-3DFD5BA2D9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D3252BE-968C-46D9-A3E6-6637A71D65A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF8A8357-DCAA-4652-A0CC-643447274474}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1F7BF59-210A-4D91-BFA3-E395567B4195}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="640">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>17,36%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>60,46%</t>
   </si>
   <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>62,86%</t>
   </si>
   <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,1810 +137,1828 @@
     <t>22,18%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>18,9%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
     <t>78,88%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
 </sst>
 </file>
@@ -2352,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3382B845-0590-4C06-A9F1-D5B9D0453FAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983BEF54-8E50-4868-B3AE-A582D1396034}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2993,10 +3011,10 @@
         <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3005,13 +3023,13 @@
         <v>201482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>361</v>
@@ -3020,10 +3038,10 @@
         <v>395232</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>95</v>
@@ -3166,7 +3184,7 @@
         <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>686</v>
@@ -3175,13 +3193,13 @@
         <v>698428</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3214,13 @@
         <v>97870</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>107</v>
@@ -3211,10 +3229,10 @@
         <v>98874</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>119</v>
@@ -3226,7 +3244,7 @@
         <v>196744</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>120</v>
@@ -3366,13 +3384,13 @@
         <v>453082</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>865</v>
@@ -3381,13 +3399,13 @@
         <v>856481</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3420,13 @@
         <v>128960</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>156</v>
@@ -3417,13 +3435,13 @@
         <v>165995</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>292</v>
@@ -3432,13 +3450,13 @@
         <v>294955</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3524,13 @@
         <v>1072285</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>1021</v>
@@ -3521,7 +3539,7 @@
         <v>1049737</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>153</v>
@@ -3575,10 +3593,10 @@
         <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>3220</v>
@@ -3587,13 +3605,13 @@
         <v>3273311</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3626,13 @@
         <v>593263</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -3623,13 +3641,13 @@
         <v>646895</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>1206</v>
@@ -3638,13 +3656,13 @@
         <v>1240158</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3718,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62ED23-126F-4437-B6B4-78FC29683E2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA325B4-335F-4951-AE44-FBB5A172B968}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,7 +3756,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3845,13 +3863,13 @@
         <v>32173</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3860,13 +3878,13 @@
         <v>20832</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3875,13 +3893,13 @@
         <v>53005</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3914,13 @@
         <v>39626</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -3911,13 +3929,13 @@
         <v>42086</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -3926,13 +3944,13 @@
         <v>81712</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3965,13 @@
         <v>40731</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>44</v>
@@ -3962,13 +3980,13 @@
         <v>48987</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>88</v>
@@ -3977,13 +3995,13 @@
         <v>89718</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4069,13 @@
         <v>198736</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>188</v>
@@ -4066,13 +4084,13 @@
         <v>199009</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>372</v>
@@ -4081,13 +4099,13 @@
         <v>397745</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4120,13 @@
         <v>204448</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H9" s="7">
         <v>208</v>
@@ -4117,13 +4135,13 @@
         <v>220187</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>402</v>
@@ -4132,13 +4150,13 @@
         <v>424634</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4171,13 @@
         <v>183417</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -4168,13 +4186,13 @@
         <v>164230</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>327</v>
@@ -4183,13 +4201,13 @@
         <v>347647</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4275,13 @@
         <v>377972</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H12" s="7">
         <v>353</v>
@@ -4272,13 +4290,13 @@
         <v>396478</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>697</v>
@@ -4287,13 +4305,13 @@
         <v>774450</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4326,13 @@
         <v>436316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>401</v>
@@ -4359,13 +4377,13 @@
         <v>197414</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -4374,13 +4392,13 @@
         <v>191757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>359</v>
@@ -4389,13 +4407,13 @@
         <v>389171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4481,13 @@
         <v>221109</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>209</v>
@@ -4478,13 +4496,13 @@
         <v>222462</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>413</v>
@@ -4493,13 +4511,13 @@
         <v>443571</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4532,13 @@
         <v>351007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>335</v>
@@ -4529,13 +4547,13 @@
         <v>374621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -4544,13 +4562,13 @@
         <v>725627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,10 +4583,10 @@
         <v>182192</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>275</v>
@@ -4580,13 +4598,13 @@
         <v>174934</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>319</v>
@@ -4595,10 +4613,10 @@
         <v>357126</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>280</v>
@@ -4675,7 +4693,7 @@
         <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>304</v>
@@ -4684,13 +4702,13 @@
         <v>327425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>561</v>
@@ -4699,13 +4717,13 @@
         <v>598409</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4759,7 @@
         <v>292</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="M21" s="7">
         <v>830</v>
@@ -4750,13 +4768,13 @@
         <v>866097</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4789,13 @@
         <v>251922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>267</v>
@@ -4786,13 +4804,13 @@
         <v>275080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>514</v>
@@ -4801,13 +4819,13 @@
         <v>527003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4893,13 @@
         <v>1100975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H24" s="7">
         <v>1073</v>
@@ -4890,13 +4908,13 @@
         <v>1166206</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
         <v>2096</v>
@@ -4905,13 +4923,13 @@
         <v>2267181</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4944,13 @@
         <v>1453063</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>1407</v>
@@ -4941,13 +4959,13 @@
         <v>1516622</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>2770</v>
@@ -4956,13 +4974,13 @@
         <v>2969685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4995,13 @@
         <v>855676</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="H26" s="7">
         <v>799</v>
@@ -4992,13 +5010,13 @@
         <v>854989</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>1607</v>
@@ -5007,13 +5025,13 @@
         <v>1710665</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,7 +5087,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE348BBF-4825-4E88-BA7C-892A5B2338B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D14338-C9A2-41A5-A07D-58903D00BBF4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,7 +5125,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5214,13 +5232,13 @@
         <v>29680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -5229,13 +5247,13 @@
         <v>35635</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -5244,13 +5262,13 @@
         <v>65316</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5283,13 @@
         <v>34512</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -5280,13 +5298,13 @@
         <v>37291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>68</v>
@@ -5295,13 +5313,13 @@
         <v>71802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5334,13 @@
         <v>52354</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>41</v>
@@ -5334,10 +5352,10 @@
         <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M6" s="7">
         <v>93</v>
@@ -5346,13 +5364,13 @@
         <v>92788</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5438,13 @@
         <v>208737</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>219</v>
@@ -5435,13 +5453,13 @@
         <v>216895</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>427</v>
@@ -5450,13 +5468,13 @@
         <v>425632</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5489,13 @@
         <v>171966</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H9" s="7">
         <v>155</v>
@@ -5486,13 +5504,13 @@
         <v>158636</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5501,13 +5519,13 @@
         <v>330602</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5540,13 @@
         <v>172469</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -5537,13 +5555,13 @@
         <v>181715</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>336</v>
@@ -5555,7 +5573,7 @@
         <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>380</v>
@@ -5641,7 +5659,7 @@
         <v>451770</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>384</v>
@@ -5695,10 +5713,10 @@
         <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>718</v>
@@ -5707,13 +5725,13 @@
         <v>766211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5746,13 @@
         <v>217664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -5743,13 +5761,13 @@
         <v>192708</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>385</v>
@@ -5758,13 +5776,13 @@
         <v>410372</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5850,13 @@
         <v>242406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>260</v>
@@ -5847,13 +5865,13 @@
         <v>282096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>477</v>
@@ -5862,13 +5880,13 @@
         <v>524502</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5901,13 @@
         <v>344140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>318</v>
@@ -5898,13 +5916,13 @@
         <v>334730</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>636</v>
@@ -5913,13 +5931,13 @@
         <v>678870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5952,13 @@
         <v>169879</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>154</v>
@@ -5949,13 +5967,13 @@
         <v>163830</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>312</v>
@@ -5964,13 +5982,13 @@
         <v>333709</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6056,13 @@
         <v>351218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>387</v>
@@ -6053,28 +6071,28 @@
         <v>422611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>742</v>
       </c>
       <c r="N20" s="7">
-        <v>773829</v>
+        <v>773830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6107,13 @@
         <v>415982</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H21" s="7">
         <v>395</v>
@@ -6104,13 +6122,13 @@
         <v>426581</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M21" s="7">
         <v>806</v>
@@ -6119,13 +6137,13 @@
         <v>842564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6158,13 @@
         <v>168099</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -6155,13 +6173,13 @@
         <v>188167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
         <v>335</v>
@@ -6170,13 +6188,13 @@
         <v>356266</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,7 +6236,7 @@
         <v>1883</v>
       </c>
       <c r="N23" s="7">
-        <v>1972659</v>
+        <v>1972660</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6244,13 +6262,13 @@
         <v>1265044</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H24" s="7">
         <v>1324</v>
@@ -6259,13 +6277,13 @@
         <v>1409008</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M24" s="7">
         <v>2534</v>
@@ -6274,13 +6292,13 @@
         <v>2674052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6313,13 @@
         <v>1336296</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>1279</v>
@@ -6310,13 +6328,13 @@
         <v>1353753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>2548</v>
@@ -6325,13 +6343,13 @@
         <v>2690049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>210</v>
+        <v>472</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6364,13 @@
         <v>780465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7">
         <v>721</v>
@@ -6361,13 +6379,13 @@
         <v>766855</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>1461</v>
@@ -6376,13 +6394,13 @@
         <v>1547320</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,7 +6427,7 @@
         <v>3324</v>
       </c>
       <c r="I27" s="7">
-        <v>3529617</v>
+        <v>3529616</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6438,7 +6456,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6459,7 +6477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2C7CF0-F3E2-469E-8934-073963E84D08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F022EA8C-97BB-411C-9EAB-55A2710FBBE9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6476,7 +6494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6583,13 +6601,13 @@
         <v>3376</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6598,13 +6616,13 @@
         <v>574</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6613,13 +6631,13 @@
         <v>3950</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6652,13 @@
         <v>2098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6649,13 +6667,13 @@
         <v>2506</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -6664,13 +6682,13 @@
         <v>4603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6703,13 @@
         <v>96508</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H6" s="7">
         <v>237</v>
@@ -6700,13 +6718,13 @@
         <v>127653</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="M6" s="7">
         <v>348</v>
@@ -6715,13 +6733,13 @@
         <v>224161</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6807,13 @@
         <v>12379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -6804,13 +6822,13 @@
         <v>13440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -6819,13 +6837,13 @@
         <v>25819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6858,13 @@
         <v>32587</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
@@ -6855,13 +6873,13 @@
         <v>35058</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -6870,13 +6888,13 @@
         <v>67645</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6909,13 @@
         <v>503384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H10" s="7">
         <v>920</v>
@@ -6906,13 +6924,13 @@
         <v>570747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="M10" s="7">
         <v>1481</v>
@@ -6921,13 +6939,13 @@
         <v>1074132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +7013,13 @@
         <v>54247</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -7010,13 +7028,13 @@
         <v>56134</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
@@ -7025,13 +7043,13 @@
         <v>110381</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +7064,13 @@
         <v>76682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -7061,13 +7079,13 @@
         <v>88447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -7076,13 +7094,13 @@
         <v>165129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7115,13 @@
         <v>908318</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="H14" s="7">
         <v>1315</v>
@@ -7112,13 +7130,13 @@
         <v>913149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M14" s="7">
         <v>2152</v>
@@ -7127,13 +7145,13 @@
         <v>1821468</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7219,13 @@
         <v>53177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -7216,13 +7234,13 @@
         <v>183014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="M16" s="7">
         <v>146</v>
@@ -7231,13 +7249,13 @@
         <v>236191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7270,13 @@
         <v>142534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -7267,13 +7285,13 @@
         <v>152608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>14</v>
+        <v>578</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -7282,13 +7300,13 @@
         <v>295142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>571</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7321,13 @@
         <v>532902</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="H18" s="7">
         <v>741</v>
@@ -7318,13 +7336,13 @@
         <v>538063</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="M18" s="7">
         <v>1231</v>
@@ -7333,13 +7351,13 @@
         <v>1070965</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7425,13 @@
         <v>152052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -7422,13 +7440,13 @@
         <v>194158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>585</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>587</v>
+        <v>38</v>
       </c>
       <c r="M20" s="7">
         <v>418</v>
@@ -7437,13 +7455,13 @@
         <v>346210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7476,13 @@
         <v>185504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="H21" s="7">
         <v>332</v>
@@ -7473,13 +7491,13 @@
         <v>249261</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="M21" s="7">
         <v>520</v>
@@ -7488,13 +7506,13 @@
         <v>434765</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>173</v>
+        <v>604</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7527,13 @@
         <v>627688</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="H22" s="7">
         <v>958</v>
@@ -7524,13 +7542,13 @@
         <v>704247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="M22" s="7">
         <v>1624</v>
@@ -7539,13 +7557,13 @@
         <v>1331934</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,7 +7575,7 @@
         <v>1005</v>
       </c>
       <c r="D23" s="7">
-        <v>965243</v>
+        <v>965244</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7613,13 +7631,13 @@
         <v>275230</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="H24" s="7">
         <v>457</v>
@@ -7628,13 +7646,13 @@
         <v>447320</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>620</v>
       </c>
       <c r="M24" s="7">
         <v>725</v>
@@ -7643,13 +7661,13 @@
         <v>722550</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,28 +7682,28 @@
         <v>439405</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="H25" s="7">
         <v>728</v>
       </c>
       <c r="I25" s="7">
-        <v>527879</v>
+        <v>527880</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="M25" s="7">
         <v>1167</v>
@@ -7694,13 +7712,13 @@
         <v>967284</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>624</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7733,13 @@
         <v>2668801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="H26" s="7">
         <v>4171</v>
@@ -7730,13 +7748,13 @@
         <v>2853859</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M26" s="7">
         <v>6836</v>
@@ -7745,13 +7763,13 @@
         <v>5522660</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,7 +7796,7 @@
         <v>5356</v>
       </c>
       <c r="I27" s="7">
-        <v>3829058</v>
+        <v>3829059</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -7807,7 +7825,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D3252BE-968C-46D9-A3E6-6637A71D65A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E24C609D-BB16-4403-A7CF-9975D8AB3706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1F7BF59-210A-4D91-BFA3-E395567B4195}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4C5162FD-89C1-464F-8379-358E4F704908}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="532">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -68,1398 +68,1161 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>53,69%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>21,27%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
+    <t>27,76%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>38,17%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
   <si>
     <t>38,92%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
     <t>40,01%</t>
   </si>
   <si>
@@ -1493,472 +1256,385 @@
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
 </sst>
 </file>
@@ -2370,8 +2046,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983BEF54-8E50-4868-B3AE-A582D1396034}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F31FFB0-419F-44CA-A6C7-9746E2CFB1C9}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2488,10 +2164,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="D4" s="7">
-        <v>20029</v>
+        <v>142978</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2503,10 +2179,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="I4" s="7">
-        <v>12535</v>
+        <v>134423</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2518,10 +2194,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="N4" s="7">
-        <v>32564</v>
+        <v>277401</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2539,10 +2215,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>63</v>
+        <v>374</v>
       </c>
       <c r="D5" s="7">
-        <v>69746</v>
+        <v>376357</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2554,10 +2230,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="I5" s="7">
-        <v>70873</v>
+        <v>372341</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2569,10 +2245,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>144</v>
+        <v>752</v>
       </c>
       <c r="N5" s="7">
-        <v>140618</v>
+        <v>748698</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2590,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="D6" s="7">
-        <v>25583</v>
+        <v>172682</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2605,10 +2281,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="I6" s="7">
-        <v>29347</v>
+        <v>180544</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2620,10 +2296,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="N6" s="7">
-        <v>54930</v>
+        <v>353226</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2641,10 +2317,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>681</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>692017</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2656,10 +2332,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>687308</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2671,10 +2347,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1376</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1379325</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2694,10 +2370,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="D8" s="7">
-        <v>122949</v>
+        <v>302102</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2709,10 +2385,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="I8" s="7">
-        <v>121888</v>
+        <v>255516</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2724,10 +2400,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>240</v>
+        <v>519</v>
       </c>
       <c r="N8" s="7">
-        <v>244837</v>
+        <v>557618</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2745,10 +2421,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="D9" s="7">
-        <v>306612</v>
+        <v>464009</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2760,10 +2436,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>297</v>
+        <v>480</v>
       </c>
       <c r="I9" s="7">
-        <v>301468</v>
+        <v>505695</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2775,10 +2451,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>608</v>
+        <v>917</v>
       </c>
       <c r="N9" s="7">
-        <v>608080</v>
+        <v>969703</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2796,10 +2472,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="D10" s="7">
-        <v>147099</v>
+        <v>193750</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2811,10 +2487,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="I10" s="7">
-        <v>151197</v>
+        <v>201482</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2826,10 +2502,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="N10" s="7">
-        <v>298295</v>
+        <v>395232</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2847,10 +2523,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>576</v>
+        <v>894</v>
       </c>
       <c r="D11" s="7">
-        <v>576659</v>
+        <v>959861</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2862,10 +2538,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>567</v>
+        <v>903</v>
       </c>
       <c r="I11" s="7">
-        <v>574553</v>
+        <v>962693</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2877,10 +2553,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1143</v>
+        <v>1797</v>
       </c>
       <c r="N11" s="7">
-        <v>1151212</v>
+        <v>1922554</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2900,10 +2576,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="D12" s="7">
-        <v>302102</v>
+        <v>221550</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2915,10 +2591,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="I12" s="7">
-        <v>255516</v>
+        <v>243271</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2930,10 +2606,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>519</v>
+        <v>446</v>
       </c>
       <c r="N12" s="7">
-        <v>557618</v>
+        <v>464822</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2951,10 +2627,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>437</v>
+        <v>342</v>
       </c>
       <c r="D13" s="7">
-        <v>464009</v>
+        <v>356732</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2966,10 +2642,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>480</v>
+        <v>344</v>
       </c>
       <c r="I13" s="7">
-        <v>505695</v>
+        <v>341696</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2981,10 +2657,10 @@
         <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>917</v>
+        <v>686</v>
       </c>
       <c r="N13" s="7">
-        <v>969703</v>
+        <v>698428</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -3002,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7">
-        <v>193750</v>
+        <v>97870</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -3017,10 +2693,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="I14" s="7">
-        <v>201482</v>
+        <v>98874</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -3032,16 +2708,16 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="N14" s="7">
-        <v>395232</v>
+        <v>196744</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>95</v>
@@ -3053,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>894</v>
+        <v>639</v>
       </c>
       <c r="D15" s="7">
-        <v>959861</v>
+        <v>676153</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3068,10 +2744,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>903</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>962693</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3083,10 +2759,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1797</v>
+        <v>1335</v>
       </c>
       <c r="N15" s="7">
-        <v>1922554</v>
+        <v>1359994</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3106,10 +2782,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>201</v>
+        <v>424</v>
       </c>
       <c r="D16" s="7">
-        <v>221550</v>
+        <v>405655</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -3121,10 +2797,10 @@
         <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>245</v>
+        <v>403</v>
       </c>
       <c r="I16" s="7">
-        <v>243271</v>
+        <v>416526</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -3136,10 +2812,10 @@
         <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>446</v>
+        <v>827</v>
       </c>
       <c r="N16" s="7">
-        <v>464822</v>
+        <v>822181</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -3157,10 +2833,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="D17" s="7">
-        <v>356732</v>
+        <v>403400</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>106</v>
@@ -3172,25 +2848,25 @@
         <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="I17" s="7">
-        <v>341696</v>
+        <v>453082</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="M17" s="7">
-        <v>686</v>
+        <v>865</v>
       </c>
       <c r="N17" s="7">
-        <v>698428</v>
+        <v>856481</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>111</v>
@@ -3208,10 +2884,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D18" s="7">
-        <v>97870</v>
+        <v>128960</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>114</v>
@@ -3223,10 +2899,10 @@
         <v>116</v>
       </c>
       <c r="H18" s="7">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="I18" s="7">
-        <v>98874</v>
+        <v>165995</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>117</v>
@@ -3238,19 +2914,19 @@
         <v>119</v>
       </c>
       <c r="M18" s="7">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="N18" s="7">
-        <v>196744</v>
+        <v>294955</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,10 +2935,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>639</v>
+        <v>990</v>
       </c>
       <c r="D19" s="7">
-        <v>676153</v>
+        <v>938015</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3274,10 +2950,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>994</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1035603</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3289,10 +2965,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1335</v>
+        <v>1984</v>
       </c>
       <c r="N19" s="7">
-        <v>1359994</v>
+        <v>1973618</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3306,16 +2982,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>424</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="7">
-        <v>405655</v>
+        <v>1072285</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>123</v>
@@ -3327,10 +3003,10 @@
         <v>125</v>
       </c>
       <c r="H20" s="7">
-        <v>403</v>
+        <v>1021</v>
       </c>
       <c r="I20" s="7">
-        <v>416526</v>
+        <v>1049737</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>126</v>
@@ -3342,10 +3018,10 @@
         <v>128</v>
       </c>
       <c r="M20" s="7">
-        <v>827</v>
+        <v>2066</v>
       </c>
       <c r="N20" s="7">
-        <v>822181</v>
+        <v>2122023</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>129</v>
@@ -3363,10 +3039,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>430</v>
+        <v>1583</v>
       </c>
       <c r="D21" s="7">
-        <v>403400</v>
+        <v>1600498</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>132</v>
@@ -3378,25 +3054,25 @@
         <v>134</v>
       </c>
       <c r="H21" s="7">
-        <v>435</v>
+        <v>1637</v>
       </c>
       <c r="I21" s="7">
-        <v>453082</v>
+        <v>1672814</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>136</v>
       </c>
       <c r="M21" s="7">
-        <v>865</v>
+        <v>3220</v>
       </c>
       <c r="N21" s="7">
-        <v>856481</v>
+        <v>3273311</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>137</v>
@@ -3414,10 +3090,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>136</v>
+        <v>576</v>
       </c>
       <c r="D22" s="7">
-        <v>128960</v>
+        <v>593263</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>140</v>
@@ -3429,10 +3105,10 @@
         <v>142</v>
       </c>
       <c r="H22" s="7">
-        <v>156</v>
+        <v>630</v>
       </c>
       <c r="I22" s="7">
-        <v>165995</v>
+        <v>646895</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>143</v>
@@ -3444,19 +3120,19 @@
         <v>145</v>
       </c>
       <c r="M22" s="7">
-        <v>292</v>
+        <v>1206</v>
       </c>
       <c r="N22" s="7">
-        <v>294955</v>
+        <v>1240158</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,10 +3141,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>990</v>
+        <v>3204</v>
       </c>
       <c r="D23" s="7">
-        <v>938015</v>
+        <v>3266046</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3480,10 +3156,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>994</v>
+        <v>3288</v>
       </c>
       <c r="I23" s="7">
-        <v>1035603</v>
+        <v>3369446</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3495,10 +3171,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1984</v>
+        <v>6492</v>
       </c>
       <c r="N23" s="7">
-        <v>1973618</v>
+        <v>6635492</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3511,222 +3187,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1045</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1072285</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1021</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1049737</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2066</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2122023</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1583</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1600498</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1637</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1672814</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3220</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3273311</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>576</v>
-      </c>
-      <c r="D26" s="7">
-        <v>593263</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="7">
-        <v>630</v>
-      </c>
-      <c r="I26" s="7">
-        <v>646895</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1206</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1240158</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3266046</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3288</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3369446</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6492</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6635492</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3739,8 +3208,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA325B4-335F-4951-AE44-FBB5A172B968}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098B02DD-2175-4061-B20F-708DEBEE59C4}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3756,7 +3225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3857,49 +3326,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="D4" s="7">
-        <v>32173</v>
+        <v>230909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="I4" s="7">
-        <v>20832</v>
+        <v>219841</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>425</v>
       </c>
       <c r="N4" s="7">
-        <v>53005</v>
+        <v>450750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,49 +3377,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="D5" s="7">
-        <v>39626</v>
+        <v>244073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="I5" s="7">
-        <v>42086</v>
+        <v>262273</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="N5" s="7">
-        <v>81712</v>
+        <v>506346</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,49 +3428,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="D6" s="7">
-        <v>40731</v>
+        <v>224147</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="I6" s="7">
-        <v>48987</v>
+        <v>213217</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="M6" s="7">
-        <v>88</v>
+        <v>415</v>
       </c>
       <c r="N6" s="7">
-        <v>89718</v>
+        <v>437364</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,10 +3479,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>119</v>
+        <v>670</v>
       </c>
       <c r="D7" s="7">
-        <v>112530</v>
+        <v>699130</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4025,10 +3494,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>695331</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4040,10 +3509,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>218</v>
+        <v>1319</v>
       </c>
       <c r="N7" s="7">
-        <v>224435</v>
+        <v>1394461</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4063,49 +3532,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="D8" s="7">
-        <v>198736</v>
+        <v>377972</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
-        <v>188</v>
+        <v>353</v>
       </c>
       <c r="I8" s="7">
-        <v>199009</v>
+        <v>396478</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
-        <v>372</v>
+        <v>697</v>
       </c>
       <c r="N8" s="7">
-        <v>397745</v>
+        <v>774450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,49 +3583,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="D9" s="7">
-        <v>204448</v>
+        <v>436316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="H9" s="7">
-        <v>208</v>
+        <v>401</v>
       </c>
       <c r="I9" s="7">
-        <v>220187</v>
+        <v>435299</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="M9" s="7">
-        <v>402</v>
+        <v>806</v>
       </c>
       <c r="N9" s="7">
-        <v>424634</v>
+        <v>871615</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,49 +3634,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D10" s="7">
-        <v>183417</v>
+        <v>197414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="I10" s="7">
-        <v>164230</v>
+        <v>191757</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="N10" s="7">
-        <v>347647</v>
+        <v>389171</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,10 +3685,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>551</v>
+        <v>930</v>
       </c>
       <c r="D11" s="7">
-        <v>586601</v>
+        <v>1011702</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4231,10 +3700,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>550</v>
+        <v>932</v>
       </c>
       <c r="I11" s="7">
-        <v>583426</v>
+        <v>1023534</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4246,10 +3715,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1101</v>
+        <v>1862</v>
       </c>
       <c r="N11" s="7">
-        <v>1170026</v>
+        <v>2035236</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4269,49 +3738,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>204</v>
       </c>
       <c r="D12" s="7">
-        <v>377972</v>
+        <v>221109</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="H12" s="7">
-        <v>353</v>
+        <v>209</v>
       </c>
       <c r="I12" s="7">
-        <v>396478</v>
+        <v>222462</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="M12" s="7">
-        <v>697</v>
+        <v>413</v>
       </c>
       <c r="N12" s="7">
-        <v>774450</v>
+        <v>443571</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,49 +3789,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="D13" s="7">
-        <v>436316</v>
+        <v>351006</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="I13" s="7">
-        <v>435299</v>
+        <v>374621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
-        <v>806</v>
+        <v>655</v>
       </c>
       <c r="N13" s="7">
-        <v>871615</v>
+        <v>725627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,49 +3840,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D14" s="7">
-        <v>197414</v>
+        <v>182192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="I14" s="7">
-        <v>191757</v>
+        <v>174934</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="N14" s="7">
-        <v>389171</v>
+        <v>357126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,10 +3891,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>930</v>
+        <v>687</v>
       </c>
       <c r="D15" s="7">
-        <v>1011702</v>
+        <v>754307</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4437,10 +3906,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>932</v>
+        <v>700</v>
       </c>
       <c r="I15" s="7">
-        <v>1023534</v>
+        <v>772017</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4452,10 +3921,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1862</v>
+        <v>1387</v>
       </c>
       <c r="N15" s="7">
-        <v>2035236</v>
+        <v>1526324</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4475,49 +3944,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="D16" s="7">
-        <v>221109</v>
+        <v>270984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="I16" s="7">
-        <v>222462</v>
+        <v>327425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
-        <v>413</v>
+        <v>561</v>
       </c>
       <c r="N16" s="7">
-        <v>443571</v>
+        <v>598409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,49 +3995,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="D17" s="7">
-        <v>351007</v>
+        <v>421667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="I17" s="7">
-        <v>374621</v>
+        <v>444430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
-        <v>655</v>
+        <v>830</v>
       </c>
       <c r="N17" s="7">
-        <v>725627</v>
+        <v>866097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,49 +4046,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D18" s="7">
-        <v>182192</v>
+        <v>251922</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="H18" s="7">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="I18" s="7">
-        <v>174934</v>
+        <v>275080</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="M18" s="7">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="N18" s="7">
-        <v>357126</v>
+        <v>527003</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,10 +4097,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>687</v>
+        <v>907</v>
       </c>
       <c r="D19" s="7">
-        <v>754308</v>
+        <v>944574</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4643,10 +4112,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>700</v>
+        <v>998</v>
       </c>
       <c r="I19" s="7">
-        <v>772017</v>
+        <v>1046935</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4658,10 +4127,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1387</v>
+        <v>1905</v>
       </c>
       <c r="N19" s="7">
-        <v>1526324</v>
+        <v>1991509</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4675,55 +4144,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>1023</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1100975</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1073</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1166206</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2096</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2267181</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D20" s="7">
-        <v>270984</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="7">
-        <v>304</v>
-      </c>
-      <c r="I20" s="7">
-        <v>327425</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M20" s="7">
-        <v>561</v>
-      </c>
-      <c r="N20" s="7">
-        <v>598409</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,49 +4201,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>403</v>
+        <v>1363</v>
       </c>
       <c r="D21" s="7">
-        <v>421667</v>
+        <v>1453063</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="H21" s="7">
-        <v>427</v>
+        <v>1407</v>
       </c>
       <c r="I21" s="7">
-        <v>444430</v>
+        <v>1516622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="M21" s="7">
-        <v>830</v>
+        <v>2770</v>
       </c>
       <c r="N21" s="7">
-        <v>866097</v>
+        <v>2969685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,49 +4252,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>247</v>
+        <v>808</v>
       </c>
       <c r="D22" s="7">
-        <v>251922</v>
+        <v>855676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>267</v>
+        <v>799</v>
       </c>
       <c r="I22" s="7">
-        <v>275080</v>
+        <v>854989</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>514</v>
+        <v>1607</v>
       </c>
       <c r="N22" s="7">
-        <v>527003</v>
+        <v>1710665</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,10 +4303,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>907</v>
+        <v>3194</v>
       </c>
       <c r="D23" s="7">
-        <v>944574</v>
+        <v>3409714</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4849,10 +4318,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>998</v>
+        <v>3279</v>
       </c>
       <c r="I23" s="7">
-        <v>1046935</v>
+        <v>3537817</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4864,10 +4333,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1905</v>
+        <v>6473</v>
       </c>
       <c r="N23" s="7">
-        <v>1991509</v>
+        <v>6947531</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4880,222 +4349,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1023</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1100975</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1073</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1166206</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2096</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2267181</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1363</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1453063</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1407</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1516622</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2770</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2969685</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>808</v>
-      </c>
-      <c r="D26" s="7">
-        <v>855676</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="7">
-        <v>799</v>
-      </c>
-      <c r="I26" s="7">
-        <v>854989</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1607</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1710665</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3194</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3409714</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3279</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3537816</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6473</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6947531</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5108,8 +4370,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D14338-C9A2-41A5-A07D-58903D00BBF4}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE3CD2A-3605-4FD6-8A0B-42862F8FEAB1}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5125,7 +4387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5226,49 +4488,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="D4" s="7">
-        <v>29680</v>
+        <v>238417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="I4" s="7">
-        <v>35635</v>
+        <v>252530</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
-        <v>67</v>
+        <v>494</v>
       </c>
       <c r="N4" s="7">
-        <v>65316</v>
+        <v>490947</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,49 +4539,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="D5" s="7">
-        <v>34512</v>
+        <v>206478</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>37291</v>
+        <v>195927</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="M5" s="7">
-        <v>68</v>
+        <v>388</v>
       </c>
       <c r="N5" s="7">
-        <v>71802</v>
+        <v>402404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,49 +4590,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="D6" s="7">
-        <v>52354</v>
+        <v>224823</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="I6" s="7">
-        <v>40434</v>
+        <v>222149</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="M6" s="7">
-        <v>93</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>92788</v>
+        <v>446972</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,10 +4641,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>647</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>669718</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5394,10 +4656,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>664</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>670606</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5409,10 +4671,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1311</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1340324</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5432,49 +4694,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>208</v>
+        <v>401</v>
       </c>
       <c r="D8" s="7">
-        <v>208737</v>
+        <v>433002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
-        <v>219</v>
+        <v>420</v>
       </c>
       <c r="I8" s="7">
-        <v>216895</v>
+        <v>451770</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
-        <v>427</v>
+        <v>821</v>
       </c>
       <c r="N8" s="7">
-        <v>425632</v>
+        <v>884772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,49 +4745,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="D9" s="7">
-        <v>171966</v>
+        <v>369696</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="H9" s="7">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="I9" s="7">
-        <v>158636</v>
+        <v>396515</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>718</v>
       </c>
       <c r="N9" s="7">
-        <v>330602</v>
+        <v>766211</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,49 +4796,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="D10" s="7">
-        <v>172469</v>
+        <v>217664</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I10" s="7">
-        <v>181715</v>
+        <v>192708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="N10" s="7">
-        <v>354184</v>
+        <v>410372</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,10 +4847,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>534</v>
+        <v>949</v>
       </c>
       <c r="D11" s="7">
-        <v>553172</v>
+        <v>1020362</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5600,10 +4862,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>549</v>
+        <v>975</v>
       </c>
       <c r="I11" s="7">
-        <v>557246</v>
+        <v>1040994</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5615,10 +4877,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1083</v>
+        <v>1924</v>
       </c>
       <c r="N11" s="7">
-        <v>1110418</v>
+        <v>2061355</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5638,49 +4900,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>401</v>
+        <v>217</v>
       </c>
       <c r="D12" s="7">
-        <v>433002</v>
+        <v>242406</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="I12" s="7">
-        <v>451770</v>
+        <v>282096</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
-        <v>821</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>884772</v>
+        <v>524502</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,49 +4951,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>318</v>
+      </c>
+      <c r="D13" s="7">
+        <v>344140</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H13" s="7">
+        <v>318</v>
+      </c>
+      <c r="I13" s="7">
+        <v>334730</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M13" s="7">
+        <v>636</v>
+      </c>
+      <c r="N13" s="7">
+        <v>678870</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="D13" s="7">
-        <v>369696</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H13" s="7">
-        <v>375</v>
-      </c>
-      <c r="I13" s="7">
-        <v>396515</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M13" s="7">
-        <v>718</v>
-      </c>
-      <c r="N13" s="7">
-        <v>766211</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,49 +5002,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="D14" s="7">
-        <v>217664</v>
+        <v>169879</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="I14" s="7">
-        <v>192708</v>
+        <v>163830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="N14" s="7">
-        <v>410372</v>
+        <v>333709</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,10 +5053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>949</v>
+        <v>693</v>
       </c>
       <c r="D15" s="7">
-        <v>1020362</v>
+        <v>756425</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5806,10 +5068,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>975</v>
+        <v>732</v>
       </c>
       <c r="I15" s="7">
-        <v>1040994</v>
+        <v>780657</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5821,10 +5083,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1924</v>
+        <v>1425</v>
       </c>
       <c r="N15" s="7">
-        <v>2061355</v>
+        <v>1537082</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5844,49 +5106,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>217</v>
+        <v>355</v>
       </c>
       <c r="D16" s="7">
-        <v>242406</v>
+        <v>351218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="I16" s="7">
-        <v>282096</v>
+        <v>422611</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>477</v>
+        <v>742</v>
       </c>
       <c r="N16" s="7">
-        <v>524502</v>
+        <v>773829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,49 +5157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>318</v>
+        <v>411</v>
       </c>
       <c r="D17" s="7">
-        <v>344140</v>
+        <v>415982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="I17" s="7">
-        <v>334730</v>
+        <v>426581</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
-        <v>636</v>
+        <v>806</v>
       </c>
       <c r="N17" s="7">
-        <v>678870</v>
+        <v>842564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,49 +5208,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D18" s="7">
-        <v>169879</v>
+        <v>168099</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="H18" s="7">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="I18" s="7">
-        <v>163830</v>
+        <v>188167</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="N18" s="7">
-        <v>333709</v>
+        <v>356266</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,10 +5259,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>693</v>
+        <v>930</v>
       </c>
       <c r="D19" s="7">
-        <v>756425</v>
+        <v>935299</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6012,10 +5274,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>732</v>
+        <v>953</v>
       </c>
       <c r="I19" s="7">
-        <v>780657</v>
+        <v>1037360</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6027,10 +5289,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1425</v>
+        <v>1883</v>
       </c>
       <c r="N19" s="7">
-        <v>1537082</v>
+        <v>1972659</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6044,55 +5306,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>355</v>
+        <v>1210</v>
       </c>
       <c r="D20" s="7">
-        <v>351218</v>
+        <v>1265044</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
-        <v>387</v>
+        <v>1324</v>
       </c>
       <c r="I20" s="7">
-        <v>422611</v>
+        <v>1409008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
-        <v>742</v>
+        <v>2534</v>
       </c>
       <c r="N20" s="7">
-        <v>773830</v>
+        <v>2674052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,49 +5363,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>411</v>
+        <v>1269</v>
       </c>
       <c r="D21" s="7">
-        <v>415982</v>
+        <v>1336296</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="H21" s="7">
-        <v>395</v>
+        <v>1279</v>
       </c>
       <c r="I21" s="7">
-        <v>426581</v>
+        <v>1353753</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="M21" s="7">
-        <v>806</v>
+        <v>2548</v>
       </c>
       <c r="N21" s="7">
-        <v>842564</v>
+        <v>2690049</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>447</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,49 +5414,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>164</v>
+        <v>740</v>
       </c>
       <c r="D22" s="7">
-        <v>168099</v>
+        <v>780465</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
-        <v>171</v>
+        <v>721</v>
       </c>
       <c r="I22" s="7">
-        <v>188167</v>
+        <v>766855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
-        <v>335</v>
+        <v>1461</v>
       </c>
       <c r="N22" s="7">
-        <v>356266</v>
+        <v>1547320</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,10 +5465,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>930</v>
+        <v>3219</v>
       </c>
       <c r="D23" s="7">
-        <v>935299</v>
+        <v>3381804</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6218,10 +5480,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>953</v>
+        <v>3324</v>
       </c>
       <c r="I23" s="7">
-        <v>1037360</v>
+        <v>3529617</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6233,10 +5495,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1883</v>
+        <v>6543</v>
       </c>
       <c r="N23" s="7">
-        <v>1972660</v>
+        <v>6911421</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6249,222 +5511,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1210</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1265044</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1324</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1409008</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2534</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2674052</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1269</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1336296</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1279</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1353753</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2548</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2690049</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>740</v>
-      </c>
-      <c r="D26" s="7">
-        <v>780465</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H26" s="7">
-        <v>721</v>
-      </c>
-      <c r="I26" s="7">
-        <v>766855</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1461</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1547320</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3219</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3381804</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3324</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3529616</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6543</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6911421</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6477,8 +5532,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F022EA8C-97BB-411C-9EAB-55A2710FBBE9}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED28CD52-4999-41B8-A803-842123286C3C}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6494,7 +5549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>404</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6595,49 +5650,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>3376</v>
+        <v>15298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>484</v>
+        <v>405</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>485</v>
+        <v>406</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>486</v>
+        <v>407</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>574</v>
+        <v>13282</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>487</v>
+        <v>408</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>488</v>
+        <v>409</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>489</v>
+        <v>410</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>3950</v>
+        <v>28581</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>490</v>
+        <v>411</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>491</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,49 +5701,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>2098</v>
+        <v>33711</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>495</v>
+        <v>416</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I5" s="7">
-        <v>2506</v>
+        <v>35663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>497</v>
+        <v>418</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>498</v>
+        <v>419</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="N5" s="7">
-        <v>4603</v>
+        <v>69374</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>499</v>
+        <v>420</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>501</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,49 +5752,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>672</v>
       </c>
       <c r="D6" s="7">
-        <v>96508</v>
+        <v>585012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>502</v>
+        <v>423</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>503</v>
+        <v>424</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>504</v>
+        <v>425</v>
       </c>
       <c r="H6" s="7">
-        <v>237</v>
+        <v>1157</v>
       </c>
       <c r="I6" s="7">
-        <v>127653</v>
+        <v>675719</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>505</v>
+        <v>426</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="M6" s="7">
-        <v>348</v>
+        <v>1829</v>
       </c>
       <c r="N6" s="7">
-        <v>224161</v>
+        <v>1260731</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>510</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>728</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>634021</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6763,10 +5818,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1240</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>724664</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6778,10 +5833,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1358686</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6801,49 +5856,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>12379</v>
+        <v>52853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>511</v>
+        <v>432</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>512</v>
+        <v>433</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>434</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I8" s="7">
-        <v>13440</v>
+        <v>51334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>515</v>
+        <v>436</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>516</v>
+        <v>437</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="N8" s="7">
-        <v>25819</v>
+        <v>104187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>517</v>
+        <v>438</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>518</v>
+        <v>439</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>519</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,49 +5907,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>32587</v>
+        <v>71495</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>520</v>
+        <v>441</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>521</v>
+        <v>442</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>522</v>
+        <v>443</v>
       </c>
       <c r="H9" s="7">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="I9" s="7">
-        <v>35058</v>
+        <v>80409</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>523</v>
+        <v>444</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>524</v>
+        <v>445</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>525</v>
+        <v>446</v>
       </c>
       <c r="M9" s="7">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="N9" s="7">
-        <v>67645</v>
+        <v>151904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>526</v>
+        <v>447</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>527</v>
+        <v>448</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>528</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,49 +5958,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>561</v>
+        <v>837</v>
       </c>
       <c r="D10" s="7">
-        <v>503384</v>
+        <v>1068517</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>529</v>
+        <v>450</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>530</v>
+        <v>451</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>531</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
-        <v>920</v>
+        <v>1315</v>
       </c>
       <c r="I10" s="7">
-        <v>570747</v>
+        <v>824796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>532</v>
+        <v>453</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>454</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>455</v>
       </c>
       <c r="M10" s="7">
-        <v>1481</v>
+        <v>2152</v>
       </c>
       <c r="N10" s="7">
-        <v>1074132</v>
+        <v>1893312</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>456</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>536</v>
+        <v>457</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>537</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,10 +6009,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>610</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>548350</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6969,10 +6024,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>997</v>
+        <v>1513</v>
       </c>
       <c r="I11" s="7">
-        <v>619244</v>
+        <v>956539</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6984,10 +6039,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1607</v>
+        <v>2477</v>
       </c>
       <c r="N11" s="7">
-        <v>1167595</v>
+        <v>2149403</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7007,49 +6062,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7">
-        <v>54247</v>
+        <v>51210</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>538</v>
+        <v>459</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>539</v>
+        <v>460</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>540</v>
+        <v>461</v>
       </c>
       <c r="H12" s="7">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I12" s="7">
-        <v>56134</v>
+        <v>271173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>541</v>
+        <v>462</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>542</v>
+        <v>463</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>543</v>
+        <v>464</v>
       </c>
       <c r="M12" s="7">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="N12" s="7">
-        <v>110381</v>
+        <v>322382</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>544</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>545</v>
+        <v>465</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>546</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,49 +6113,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D13" s="7">
-        <v>76682</v>
+        <v>137110</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>548</v>
+        <v>468</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>549</v>
+        <v>469</v>
       </c>
       <c r="H13" s="7">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="I13" s="7">
-        <v>88447</v>
+        <v>139245</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>551</v>
+        <v>471</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>552</v>
+        <v>472</v>
       </c>
       <c r="M13" s="7">
-        <v>201</v>
+        <v>344</v>
       </c>
       <c r="N13" s="7">
-        <v>165129</v>
+        <v>276355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>554</v>
+        <v>474</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>555</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,49 +6164,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>837</v>
+        <v>490</v>
       </c>
       <c r="D14" s="7">
-        <v>908318</v>
+        <v>516196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>556</v>
+        <v>476</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>558</v>
+        <v>478</v>
       </c>
       <c r="H14" s="7">
-        <v>1315</v>
+        <v>741</v>
       </c>
       <c r="I14" s="7">
-        <v>913149</v>
+        <v>522342</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>561</v>
+        <v>481</v>
       </c>
       <c r="M14" s="7">
-        <v>2152</v>
+        <v>1231</v>
       </c>
       <c r="N14" s="7">
-        <v>1821468</v>
+        <v>1038537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>562</v>
+        <v>482</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>563</v>
+        <v>483</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,10 +6215,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704516</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7175,10 +6230,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1513</v>
+        <v>1046</v>
       </c>
       <c r="I15" s="7">
-        <v>1057730</v>
+        <v>932759</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7190,10 +6245,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2477</v>
+        <v>1721</v>
       </c>
       <c r="N15" s="7">
-        <v>2096978</v>
+        <v>1637274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7213,49 +6268,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="D16" s="7">
-        <v>53177</v>
+        <v>147054</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>485</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>566</v>
+        <v>486</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>567</v>
+        <v>487</v>
       </c>
       <c r="H16" s="7">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="I16" s="7">
-        <v>183014</v>
+        <v>176444</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>568</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>569</v>
+        <v>488</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>570</v>
+        <v>489</v>
       </c>
       <c r="M16" s="7">
-        <v>146</v>
+        <v>418</v>
       </c>
       <c r="N16" s="7">
-        <v>236191</v>
+        <v>323497</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>571</v>
+        <v>490</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>572</v>
+        <v>491</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>573</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,49 +6319,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="D17" s="7">
-        <v>142534</v>
+        <v>177188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>574</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>576</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="I17" s="7">
-        <v>152608</v>
+        <v>280925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>577</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>578</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>579</v>
+        <v>496</v>
       </c>
       <c r="M17" s="7">
-        <v>344</v>
+        <v>520</v>
       </c>
       <c r="N17" s="7">
-        <v>295142</v>
+        <v>458113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>580</v>
+        <v>497</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>581</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,49 +6370,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>490</v>
+        <v>666</v>
       </c>
       <c r="D18" s="7">
-        <v>532902</v>
+        <v>602425</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>582</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>583</v>
+        <v>501</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>584</v>
+        <v>502</v>
       </c>
       <c r="H18" s="7">
-        <v>741</v>
+        <v>958</v>
       </c>
       <c r="I18" s="7">
-        <v>538063</v>
+        <v>634976</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>585</v>
+        <v>503</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>586</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>587</v>
+        <v>504</v>
       </c>
       <c r="M18" s="7">
-        <v>1231</v>
+        <v>1624</v>
       </c>
       <c r="N18" s="7">
-        <v>1070965</v>
+        <v>1237402</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>588</v>
+        <v>505</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>589</v>
+        <v>506</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>590</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,10 +6421,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D19" s="7">
-        <v>728612</v>
+        <v>926667</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7381,10 +6436,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1046</v>
+        <v>1557</v>
       </c>
       <c r="I19" s="7">
-        <v>873686</v>
+        <v>1092345</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7396,10 +6451,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1721</v>
+        <v>2562</v>
       </c>
       <c r="N19" s="7">
-        <v>1602298</v>
+        <v>2019013</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7413,55 +6468,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7">
-        <v>152052</v>
+        <v>266415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>591</v>
+        <v>508</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>592</v>
+        <v>509</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="H20" s="7">
-        <v>267</v>
+        <v>457</v>
       </c>
       <c r="I20" s="7">
-        <v>194158</v>
+        <v>512233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>16</v>
+        <v>511</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>594</v>
+        <v>512</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>38</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
-        <v>418</v>
+        <v>725</v>
       </c>
       <c r="N20" s="7">
-        <v>346210</v>
+        <v>778647</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>595</v>
+        <v>515</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>596</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,49 +6525,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>188</v>
+        <v>439</v>
       </c>
       <c r="D21" s="7">
-        <v>185504</v>
+        <v>419503</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>597</v>
+        <v>517</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>598</v>
+        <v>518</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>599</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
-        <v>332</v>
+        <v>728</v>
       </c>
       <c r="I21" s="7">
-        <v>249261</v>
+        <v>536242</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>600</v>
+        <v>88</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>602</v>
+        <v>223</v>
       </c>
       <c r="M21" s="7">
+        <v>1167</v>
+      </c>
+      <c r="N21" s="7">
+        <v>955746</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="N21" s="7">
-        <v>434765</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>603</v>
-      </c>
       <c r="P21" s="7" t="s">
-        <v>604</v>
+        <v>521</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>605</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,49 +6576,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>666</v>
+        <v>2665</v>
       </c>
       <c r="D22" s="7">
-        <v>627688</v>
+        <v>2772151</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>606</v>
+        <v>523</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>607</v>
+        <v>524</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>608</v>
+        <v>525</v>
       </c>
       <c r="H22" s="7">
-        <v>958</v>
+        <v>4171</v>
       </c>
       <c r="I22" s="7">
-        <v>704247</v>
+        <v>2657832</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>609</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>610</v>
+        <v>527</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>611</v>
+        <v>528</v>
       </c>
       <c r="M22" s="7">
-        <v>1624</v>
+        <v>6836</v>
       </c>
       <c r="N22" s="7">
-        <v>1331934</v>
+        <v>5429983</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>612</v>
+        <v>529</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>613</v>
+        <v>530</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>614</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,10 +6627,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1005</v>
+        <v>3372</v>
       </c>
       <c r="D23" s="7">
-        <v>965244</v>
+        <v>3458069</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7587,10 +6642,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1557</v>
+        <v>5356</v>
       </c>
       <c r="I23" s="7">
-        <v>1147666</v>
+        <v>3706307</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7602,10 +6657,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2562</v>
+        <v>8728</v>
       </c>
       <c r="N23" s="7">
-        <v>2112909</v>
+        <v>7164376</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7618,222 +6673,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>268</v>
-      </c>
-      <c r="D24" s="7">
-        <v>275230</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="H24" s="7">
-        <v>457</v>
-      </c>
-      <c r="I24" s="7">
-        <v>447320</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="M24" s="7">
-        <v>725</v>
-      </c>
-      <c r="N24" s="7">
-        <v>722550</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>439</v>
-      </c>
-      <c r="D25" s="7">
-        <v>439405</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="H25" s="7">
-        <v>728</v>
-      </c>
-      <c r="I25" s="7">
-        <v>527880</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1167</v>
-      </c>
-      <c r="N25" s="7">
-        <v>967284</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2665</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2668801</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4171</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2853859</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6836</v>
-      </c>
-      <c r="N26" s="7">
-        <v>5522660</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3383436</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3829059</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8728</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7212494</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
